--- a/词汇.xlsx
+++ b/词汇.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\书-sach-books\HSK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="245">
   <si>
     <t>集装箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -975,6 +975,54 @@
   </si>
   <si>
     <t>为什么大家宁可挤成一团，也不去没人的那边？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极其</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意思是“非常”，多用于书面语，只能修饰双音节或多音节形容词。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天说“太糟糕了”“太讨厌了”“真倒霉”的人，遇到的困难热格外多，运气也显得极其糟糕。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其余</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示剩下的、另外的部分。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有一个房间亮着灯，其余窗户都是黑的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用格式为“。。。（由此）课件。。。”，表示可以根据上文所说的情况做出判断。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉语中有个成语叫“自知之明”，把“自知”成为“明”，课件“自知”是一种智慧。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1421,10 +1469,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:E47"/>
+  <dimension ref="B1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="B44" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2034,6 +2082,48 @@
       </c>
       <c r="E47" s="4" t="s">
         <v>232</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="69" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
